--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolfo\Desktop\ICI\2-Licenciatura\4to Año\8vo Semestre\TALLER DE INGENIERIA DE SOFTWARE\2019\CRG_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolfo\Desktop\ICI\2-Licenciatura\4to Año\8vo Semestre\TALLER DE INGENIERIA DE SOFTWARE\2019\CRG_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39460DF7-50AF-45F9-8D95-4BD9915598BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2412950-9530-4656-A484-E992C1742625}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Cuarto Mes (Incremento 4) - Desarrollo funcionalidad del cliente</t>
+  </si>
+  <si>
+    <t>Estudio de Frameworks</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,6 +783,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,9 +1447,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Carta Gantt'!$B$9:$B$28</c:f>
+              <c:f>'Carta Gantt'!$B$9:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
@@ -1453,48 +1457,51 @@
                   <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Estudio de Frameworks</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extension</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,10 +1509,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Carta Gantt'!$E$9:$E$28</c:f>
+              <c:f>'Carta Gantt'!$E$9:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1516,45 +1523,48 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
@@ -1586,9 +1596,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Carta Gantt'!$B$9:$B$28</c:f>
+              <c:f>'Carta Gantt'!$B$9:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
@@ -1596,48 +1606,51 @@
                   <c:v>Diseño</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Estudio de Frameworks</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Especificacion de Requisitos / Análisis</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Implementación</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Verificacion/Validacion, Reunion con cliente</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Extension</c:v>
                 </c:pt>
               </c:strCache>
@@ -1645,10 +1658,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Carta Gantt'!$F$9:$F$28</c:f>
+              <c:f>'Carta Gantt'!$F$9:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1656,48 +1669,51 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2432,80 +2448,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="81" t="s">
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="82" t="s">
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="81" t="s">
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
       <c r="AJ6" s="47"/>
     </row>
     <row r="7" spans="1:39" ht="15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="47"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -3388,10 +3404,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3590,23 +3606,23 @@
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:35" ht="39.75" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="84" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="1"/>
@@ -3638,13 +3654,13 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -3725,11 +3741,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="75">
-        <f t="shared" ref="F9:F12" si="0">IF(ISBLANK(C9),"", (D9-C9))</f>
+        <f t="shared" ref="F9:F13" si="0">IF(ISBLANK(C9),"", (D9-C9))</f>
         <v>7</v>
       </c>
       <c r="G9" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3778,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="69">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3807,27 +3823,27 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="15">
+    <row r="11" spans="1:35" s="80" customFormat="1" ht="15">
       <c r="A11" s="76"/>
       <c r="B11" s="73" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" s="72">
         <v>43719</v>
       </c>
       <c r="D11" s="72">
-        <v>43726</v>
+        <v>43735</v>
       </c>
       <c r="E11" s="75">
-        <f t="shared" ref="E11:E12" si="1">INT(C11)-INT($C$9)</f>
+        <f t="shared" ref="E11" si="1">INT(C11)-INT($C$9)</f>
         <v>14</v>
       </c>
       <c r="F11" s="75">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="F11" si="2">IF(ISBLANK(C11),"", (D11-C11))</f>
+        <v>16</v>
       </c>
       <c r="G11" s="69">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -3859,78 +3875,104 @@
     <row r="12" spans="1:35" ht="15">
       <c r="A12" s="76"/>
       <c r="B12" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="72">
-        <v>43726</v>
-      </c>
-      <c r="D12" s="74">
-        <v>43733</v>
+        <v>43735</v>
+      </c>
+      <c r="D12" s="72">
+        <v>43742</v>
       </c>
       <c r="E12" s="75">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" ref="E12:E13" si="3">INT(C12)-INT($C$9)</f>
+        <v>30</v>
       </c>
       <c r="F12" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G12" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" ht="15">
+      <c r="A13" s="76"/>
+      <c r="B13" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="72">
+        <v>43742</v>
+      </c>
+      <c r="D13" s="74">
+        <v>43748</v>
+      </c>
+      <c r="E13" s="75">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="75">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="69">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="77" t="s">
+    <row r="14" spans="1:35">
+      <c r="A14" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-    </row>
-    <row r="14" spans="1:35" ht="15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="74">
-        <v>43733</v>
-      </c>
-      <c r="D14" s="74">
-        <v>43740</v>
-      </c>
-      <c r="E14" s="75">
-        <f>INT(C14)-INT($C$9)</f>
-        <v>28</v>
-      </c>
-      <c r="F14" s="75">
-        <f>IF(ISBLANK(C14),"", (D14-C14))</f>
-        <v>7</v>
-      </c>
-      <c r="G14" s="69">
-        <v>0</v>
-      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:35" ht="15">
       <c r="A15" s="76"/>
       <c r="B15" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="74">
-        <v>43740</v>
+        <v>43748</v>
       </c>
       <c r="D15" s="74">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="E15" s="75">
-        <f t="shared" ref="E15:E17" si="2">INT(C15)-INT($C$9)</f>
-        <v>35</v>
+        <f>INT(C15)-INT($C$9)</f>
+        <v>43</v>
       </c>
       <c r="F15" s="75">
-        <f t="shared" ref="F15:F17" si="3">IF(ISBLANK(C15),"", (D15-C15))</f>
-        <v>14</v>
+        <f>IF(ISBLANK(C15),"", (D15-C15))</f>
+        <v>5</v>
       </c>
       <c r="G15" s="69">
         <v>0</v>
@@ -3939,21 +3981,21 @@
     <row r="16" spans="1:35" ht="15">
       <c r="A16" s="76"/>
       <c r="B16" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="74">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="D16" s="74">
-        <v>43761</v>
+        <v>43758</v>
       </c>
       <c r="E16" s="75">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f>INT(C16)-INT($C$9)</f>
+        <v>48</v>
       </c>
       <c r="F16" s="75">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" ref="F16:F18" si="4">IF(ISBLANK(C16),"", (D16-C16))</f>
+        <v>5</v>
       </c>
       <c r="G16" s="69">
         <v>0</v>
@@ -3962,78 +4004,78 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="76"/>
       <c r="B17" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="74">
-        <v>43761</v>
+        <v>43758</v>
       </c>
       <c r="D17" s="74">
-        <v>43768</v>
+        <v>43762</v>
       </c>
       <c r="E17" s="75">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" ref="E17:E18" si="5">INT(C17)-INT($C$9)</f>
+        <v>53</v>
       </c>
       <c r="F17" s="75">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G17" s="69">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="77" t="s">
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="76"/>
+      <c r="B18" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="74">
+        <v>43762</v>
+      </c>
+      <c r="D18" s="74">
+        <v>43768</v>
+      </c>
+      <c r="E18" s="75">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="75">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="74">
-        <v>43768</v>
-      </c>
-      <c r="D19" s="74">
-        <v>43771</v>
-      </c>
-      <c r="E19" s="75">
-        <f>INT(C19)-INT($C$9)</f>
-        <v>63</v>
-      </c>
-      <c r="F19" s="75">
-        <f>IF(ISBLANK(C19),"", (D19-C19))</f>
-        <v>3</v>
-      </c>
-      <c r="G19" s="69">
-        <v>0</v>
-      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="76"/>
       <c r="B20" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="74">
+        <v>43768</v>
+      </c>
+      <c r="D20" s="74">
         <v>43771</v>
       </c>
-      <c r="D20" s="74">
-        <v>43778</v>
-      </c>
       <c r="E20" s="75">
-        <f t="shared" ref="E20:E22" si="4">INT(C20)-INT($C$9)</f>
-        <v>66</v>
+        <f>INT(C20)-INT($C$9)</f>
+        <v>63</v>
       </c>
       <c r="F20" s="75">
-        <f t="shared" ref="F20:F22" si="5">IF(ISBLANK(C20),"", (D20-C20))</f>
-        <v>7</v>
+        <f>IF(ISBLANK(C20),"", (D20-C20))</f>
+        <v>3</v>
       </c>
       <c r="G20" s="69">
         <v>0</v>
@@ -4042,21 +4084,21 @@
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="76"/>
       <c r="B21" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="74">
+        <v>43771</v>
+      </c>
+      <c r="D21" s="74">
         <v>43778</v>
       </c>
-      <c r="D21" s="74">
-        <v>43786</v>
-      </c>
       <c r="E21" s="75">
-        <f t="shared" si="4"/>
-        <v>73</v>
+        <f t="shared" ref="E21:E23" si="6">INT(C21)-INT($C$9)</f>
+        <v>66</v>
       </c>
       <c r="F21" s="75">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" ref="F21:F23" si="7">IF(ISBLANK(C21),"", (D21-C21))</f>
+        <v>7</v>
       </c>
       <c r="G21" s="69">
         <v>0</v>
@@ -4065,104 +4107,102 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="76"/>
       <c r="B22" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="74">
+        <v>43778</v>
+      </c>
+      <c r="D22" s="74">
         <v>43786</v>
       </c>
-      <c r="D22" s="74">
-        <v>43789</v>
-      </c>
       <c r="E22" s="75">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="F22" s="75">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="G22" s="69">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="76"/>
+      <c r="B23" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="74">
+        <v>43786</v>
+      </c>
+      <c r="D23" s="74">
+        <v>43789</v>
+      </c>
+      <c r="E23" s="75">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-    </row>
-    <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="74">
-        <v>43789</v>
-      </c>
-      <c r="D24" s="74">
-        <v>43792</v>
-      </c>
-      <c r="E24" s="75">
-        <f>INT(C24)-INT($C$9)</f>
-        <v>84</v>
-      </c>
-      <c r="F24" s="75">
-        <f>IF(ISBLANK(C24),"", (D24-C24))</f>
-        <v>3</v>
-      </c>
-      <c r="G24" s="69">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="76"/>
       <c r="B25" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="74">
+        <v>43789</v>
+      </c>
+      <c r="D25" s="74">
         <v>43792</v>
       </c>
-      <c r="D25" s="74">
-        <v>43796</v>
-      </c>
       <c r="E25" s="75">
-        <f t="shared" ref="E25:E28" si="6">INT(C25)-INT($C$9)</f>
-        <v>87</v>
+        <f>INT(C25)-INT($C$9)</f>
+        <v>84</v>
       </c>
       <c r="F25" s="75">
-        <f t="shared" ref="F25:F28" si="7">IF(ISBLANK(C25),"", (D25-C25))</f>
-        <v>4</v>
+        <f>IF(ISBLANK(C25),"", (D25-C25))</f>
+        <v>3</v>
       </c>
       <c r="G25" s="69">
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="76"/>
       <c r="B26" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="74">
+        <v>43792</v>
+      </c>
+      <c r="D26" s="74">
         <v>43796</v>
       </c>
-      <c r="D26" s="74">
-        <v>43803</v>
-      </c>
       <c r="E26" s="75">
-        <f t="shared" si="6"/>
-        <v>91</v>
+        <f t="shared" ref="E26:E29" si="8">INT(C26)-INT($C$9)</f>
+        <v>87</v>
       </c>
       <c r="F26" s="75">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" ref="F26:F29" si="9">IF(ISBLANK(C26),"", (D26-C26))</f>
+        <v>4</v>
       </c>
       <c r="G26" s="69">
         <v>0</v>
@@ -4173,63 +4213,78 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="76"/>
       <c r="B27" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="74">
+        <v>43796</v>
+      </c>
+      <c r="D27" s="74">
         <v>43803</v>
       </c>
-      <c r="D27" s="74">
-        <v>43807</v>
-      </c>
       <c r="E27" s="75">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>91</v>
       </c>
       <c r="F27" s="75">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="G27" s="69">
         <v>0</v>
       </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="71"/>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="76"/>
       <c r="B28" s="73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C28" s="74">
+        <v>43803</v>
+      </c>
+      <c r="D28" s="74">
         <v>43807</v>
       </c>
-      <c r="D28" s="74">
-        <v>43821</v>
-      </c>
       <c r="E28" s="75">
-        <f t="shared" si="6"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>98</v>
       </c>
       <c r="F28" s="75">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G28" s="69">
         <v>0</v>
       </c>
-      <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="76"/>
+      <c r="B29" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="74">
+        <v>43807</v>
+      </c>
+      <c r="D29" s="74">
+        <v>43821</v>
+      </c>
+      <c r="E29" s="75">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="F29" s="75">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="G29" s="69">
+        <v>0</v>
+      </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="71"/>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -4240,32 +4295,42 @@
       <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75"/>
+    <row r="38" spans="1:8" ht="12.75"/>
+    <row r="39" spans="1:8" ht="12.75"/>
+    <row r="40" spans="1:8" ht="12.75"/>
+    <row r="41" spans="1:8" ht="12.75"/>
+    <row r="42" spans="1:8" ht="12.75"/>
+    <row r="43" spans="1:8" ht="12.75"/>
+    <row r="44" spans="1:8" ht="12.75"/>
+    <row r="45" spans="1:8" ht="12.75"/>
+    <row r="46" spans="1:8" ht="12.75"/>
+    <row r="47" spans="1:8" ht="12.75"/>
+    <row r="48" spans="1:8" ht="12.75"/>
     <row r="49" ht="12.75"/>
     <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:A7"/>
@@ -4276,8 +4341,8 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H28:H29 H26 G23">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H29:H30 H27 G24">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4286,7 +4351,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G28">
+  <conditionalFormatting sqref="G25:G29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4326,7 +4401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4366,7 +4441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4386,7 +4461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4396,7 +4471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4406,7 +4481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4417,7 +4492,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C19:D22 C9:D12 C14:D17 C24:D28" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C20:D23 C25:D29 C15:D18 C9:D13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C9))), AND(ISNUMBER(C9), LEFT(CELL("format", C9))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -4586,15 +4661,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4795,118 +4870,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90" t="s">
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="88" t="s">
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="90" t="s">
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="88" t="s">
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="90" t="s">
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="88" t="s">
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="90" t="s">
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="88" t="s">
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="90" t="s">
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="89"/>
-      <c r="BE6" s="89"/>
-      <c r="BF6" s="88" t="s">
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="89"/>
-      <c r="BH6" s="89"/>
-      <c r="BI6" s="89"/>
-      <c r="BJ6" s="89"/>
-      <c r="BK6" s="90" t="s">
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="89"/>
-      <c r="BN6" s="89"/>
-      <c r="BO6" s="89"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
     </row>
     <row r="7" spans="1:67" ht="15">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="95"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5093,11 +5168,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5644,11 +5719,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -6039,11 +6114,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6596,11 +6671,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
